--- a/doc/0.공용폴더/04 요구사항정의서/요구사항_정의서 - 회원가입 및 로그인(황민동).xlsx
+++ b/doc/0.공용폴더/04 요구사항정의서/요구사항_정의서 - 회원가입 및 로그인(황민동).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="24795" windowHeight="12120"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="게시판 요구사항 정의서" sheetId="8" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>요구사항 정의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,130 +44,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>사용자는 로그인 버튼을 누르면 로그인할 수 있는 폼으로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디와 비밀번호가 일치하지 않으면 로그인되지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디와 비밀번호 일치시 로그인된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원은 회원가입시 입력했던 이름과 이메일을 입력해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력한 이메일로 인증번호 받기를 통해 인증번호를 받는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증번호를 입력하지 않으면 아이디를 찾을 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원은 아이디 찾기 버튼을 누르면 아이디를 찾을 수 있는 폼으로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원은 비밀번호 찾기 버튼을 누르면 비밀번호를 찾을 수 있는 폼으로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원은 회원가입시 입력했던 아이디와 이메일을 입력해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증번호를 입력하지 않으면 비밀번호를 찾을 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디는 중복확인을 통해 중복되지 않은 아이디만 가입할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호는 일치확인을 통해 비밀번호 확인값과 일치해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별은 남자, 여자 둘 중 하나를 무조건 선택해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선호팀의 기본값은 '없음'이며 한 구단만 선택할 수있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인이 완료되면 메인페이지로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입이  완료되면 회원가입 성공페이지로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일은 중복되었으면 인증번호 받기가 진행되지 않으며, 중복되지 않은 이메일로 받은 인증번호를 기입해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이디의 중복확인을 통해 이미있는 아이디인지  확인할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자는 로그인 버튼을 누르면 로그인할 수 있는 폼으로 이동한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디와 비밀번호가 일치하지 않으면 로그인되지 않는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디와 비밀번호 일치시 로그인된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원은 회원가입시 입력했던 이름과 이메일을 입력해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력한 이메일로 인증번호 받기를 통해 인증번호를 받는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증번호를 입력하지 않으면 아이디를 찾을 수 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원은 아이디 찾기 버튼을 누르면 아이디를 찾을 수 있는 폼으로 이동한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원은 비밀번호 찾기 버튼을 누르면 비밀번호를 찾을 수 있는 폼으로 이동한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원은 회원가입시 입력했던 아이디와 이메일을 입력해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증번호를 입력하지 않으면 비밀번호를 찾을 수 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디는 중복확인을 통해 중복되지 않은 아이디만 가입할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호는 일치확인을 통해 비밀번호 확인값과 일치해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성별은 남자, 여자 둘 중 하나를 무조건 선택해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선호팀의 기본값은 '없음'이며 한 구단만 선택할 수있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 일치확인을 통해 입력한 비밀번호가 같은지 확인할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 인증번호 받기를 통해 중복된 이메일인지 확인할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임은 중복확인을 통해 중복되지 않은 (한글,영문,숫자만 8글자 가능하다)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임 중복확인을 통해 이미있는 닉네임인지 확인할 수있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인이 완료되면 메인페이지로 이동한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입이  완료되면 회원가입 성공페이지로 이동한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일은 중복되었으면 인증번호 받기가 진행되지 않으며, 중복되지 않은 이메일로 받은 인증번호를 기입해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이디 찾기를 통한 아이디를 조회할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,19 +164,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>생년월일은 실제 존재하지 않는 날짜는 입력할 수 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름은 (한글2글자~6글자만 가능하다)</t>
+    <t>이름, 생년월일을 입력할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,7 +277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -317,9 +289,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -434,7 +403,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -469,7 +437,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -645,380 +612,320 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="130.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+    <row r="4" spans="1:3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="2" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="5" t="s">
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+    <row r="34" spans="1:3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6"/>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="5"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="16">
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="A26:A34"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B6:B14"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A3:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/0.공용폴더/04 요구사항정의서/요구사항_정의서 - 회원가입 및 로그인(황민동).xlsx
+++ b/doc/0.공용폴더/04 요구사항정의서/요구사항_정의서 - 회원가입 및 로그인(황민동).xlsx
@@ -108,18 +108,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이디는 중복확인을 통해 중복되지 않은 아이디만 가입할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비밀번호는 일치확인을 통해 비밀번호 확인값과 일치해야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>성별은 남자, 여자 둘 중 하나를 무조건 선택해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>선호팀의 기본값은 '없음'이며 한 구단만 선택할 수있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,6 +157,14 @@
   </si>
   <si>
     <t>이름, 생년월일을 입력할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별은 남자, 여자, 선택 안함 셋 중 하나를 무조건 선택해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디는 12자 미만으로 중복확인을 통해 중복되지 않은 아이디만 가입할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -654,7 +654,7 @@
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -663,42 +663,42 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -716,7 +716,7 @@
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -727,7 +727,7 @@
     <row r="14" spans="1:3">
       <c r="A14" s="8"/>
       <c r="B14" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
@@ -760,7 +760,7 @@
       <c r="A18" s="8"/>
       <c r="B18" s="10"/>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -799,10 +799,10 @@
     <row r="24" spans="1:3">
       <c r="A24" s="8"/>
       <c r="B24" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -825,7 +825,7 @@
       <c r="A27" s="8"/>
       <c r="B27" s="10"/>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -864,10 +864,10 @@
     <row r="33" spans="1:3">
       <c r="A33" s="8"/>
       <c r="B33" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -910,6 +910,10 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A11:A16"/>
@@ -922,10 +926,6 @@
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="A17:A25"/>
     <mergeCell ref="A26:A34"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
